--- a/wiki風自己紹介ページ/image/参加状況.xlsx
+++ b/wiki風自己紹介ページ/image/参加状況.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\総合ファイル！(offline)\ホムペ\wiki風自己紹介ページ\image\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\総合ファイル！(offline)\ホムペ\ふらふらめんたいこのホームページ\wiki風自己紹介ページ\image\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24102C2B-21D7-4926-8BC5-AF99786D8338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C81BDFC-72D9-4628-A69A-D8CF8F33B2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{EE013F99-0A95-4935-9FB0-92AD86C5F697}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EE013F99-0A95-4935-9FB0-92AD86C5F697}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -297,23 +297,23 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AAAF38-6A9F-49A4-A0D6-A3BF9661DADA}">
   <dimension ref="A1:AB13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB13" sqref="A1:AB13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -672,19 +672,19 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
     </row>
     <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4"/>
@@ -704,19 +704,19 @@
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
     </row>
     <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
@@ -736,19 +736,19 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="18"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
     </row>
     <row r="4" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
@@ -768,19 +768,19 @@
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
-      <c r="R4" s="18" t="s">
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
     </row>
     <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
@@ -800,19 +800,19 @@
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
-      <c r="R5" s="18" t="s">
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
     </row>
     <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
@@ -832,19 +832,19 @@
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
-      <c r="R6" s="18" t="s">
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
     </row>
     <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
@@ -864,19 +864,19 @@
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
-      <c r="R7" s="18" t="s">
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
     </row>
     <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
@@ -896,19 +896,19 @@
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
-      <c r="R8" s="18" t="s">
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17"/>
     </row>
     <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
@@ -928,19 +928,19 @@
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
-      <c r="R9" s="18" t="s">
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
     </row>
     <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
@@ -960,51 +960,51 @@
       <c r="O10" s="13"/>
       <c r="P10" s="13"/>
       <c r="Q10" s="13"/>
-      <c r="R10" s="18" t="s">
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="21" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="21"/>
-      <c r="AB11" s="21"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
     </row>
     <row r="12" spans="1:28" ht="57" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
@@ -1094,20 +1094,20 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A13" s="15"/>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="16" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
